--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dango\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dango\Desktop\aizo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3153F8-592C-4261-B922-1E35FE8DEBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE93E54-BBB5-40C0-9850-9AA68484B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1725" windowWidth="29040" windowHeight="15840" xr2:uid="{5D423D4B-4630-4F4A-BE98-7CD997DDC9E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D423D4B-4630-4F4A-BE98-7CD997DDC9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>Rozmiar tabeli</t>
   </si>
@@ -97,6 +97,12 @@
   <si>
     <t>Czas binSort</t>
   </si>
+  <si>
+    <t>czasA</t>
+  </si>
+  <si>
+    <t>czasB</t>
+  </si>
 </sst>
 </file>
 
@@ -149,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,7 +171,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2325,22 +2336,22 @@
             <c:numRef>
               <c:f>Sheet1!$O$32:$O$36</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9999</c:v>
+                  <c:v>24988600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9999</c:v>
+                  <c:v>24988600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25106100</c:v>
+                  <c:v>25026400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25103500</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>118984</c:v>
+                  <c:v>25023900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2460,16 +2471,16 @@
             <c:numRef>
               <c:f>Sheet1!$M$32:$M$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9999</c:v>
+                  <c:v>50002464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9999</c:v>
+                  <c:v>50002464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12573</c:v>
+                  <c:v>12534</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9999</c:v>
@@ -2595,7 +2606,7 @@
             <c:numRef>
               <c:f>Sheet1!$N$32:$N$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9999</c:v>
@@ -2607,10 +2618,10 @@
                   <c:v>50004999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50002425</c:v>
+                  <c:v>50002464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123409</c:v>
+                  <c:v>123429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2690,7 +2701,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="55000000"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3001,16 +3012,16 @@
             <c:numRef>
               <c:f>Sheet1!$S$32:$S$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50002425</c:v>
+                  <c:v>50002464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50002425</c:v>
+                  <c:v>50002464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50002425</c:v>
+                  <c:v>50002464</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>50004999</c:v>
@@ -3137,7 +3148,7 @@
             <c:numRef>
               <c:f>Sheet1!$T$32:$T$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9999</c:v>
@@ -3149,10 +3160,10 @@
                   <c:v>9999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12573</c:v>
+                  <c:v>12534</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12573</c:v>
+                  <c:v>12534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3273,22 +3284,22 @@
             <c:numRef>
               <c:f>Sheet1!$U$32:$U$36</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>24908900</c:v>
+                  <c:v>24988600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24908900</c:v>
+                  <c:v>24988600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24908900</c:v>
+                  <c:v>24988600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24911500</c:v>
+                  <c:v>24991100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24911500</c:v>
+                  <c:v>24991100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3579,7 +3590,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$53</c:f>
+              <c:f>Sheet1!$S$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3682,31 +3693,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$54:$M$58</c:f>
+              <c:f>Sheet1!$S$54:$S$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>999</c:v>
+                  <c:v>500229</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>999</c:v>
+                  <c:v>500229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1269</c:v>
+                  <c:v>500229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>999</c:v>
+                  <c:v>500499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7987</c:v>
+                  <c:v>500499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-11AA-4CAC-A943-995B08A16CD5}"/>
+              <c16:uniqueId val="{00000000-0907-4B60-A018-04888C4431B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3715,7 +3726,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$53</c:f>
+              <c:f>Sheet1!$T$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3818,9 +3829,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$54:$N$58</c:f>
+              <c:f>Sheet1!$T$54:$T$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>999</c:v>
@@ -3829,20 +3840,20 @@
                   <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500499</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500229</c:v>
+                  <c:v>1269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8960</c:v>
+                  <c:v>1269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-11AA-4CAC-A943-995B08A16CD5}"/>
+              <c16:uniqueId val="{00000001-0907-4B60-A018-04888C4431B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3851,7 +3862,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$53</c:f>
+              <c:f>Sheet1!$U$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3954,31 +3965,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$54:$O$58</c:f>
+              <c:f>Sheet1!$U$54:$U$58</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>999</c:v>
+                  <c:v>251374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>999</c:v>
+                  <c:v>251374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>258071</c:v>
+                  <c:v>251374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>257846</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>8603</c:v>
+                  <c:v>251424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>251424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-11AA-4CAC-A943-995B08A16CD5}"/>
+              <c16:uniqueId val="{00000002-0907-4B60-A018-04888C4431B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4216,690 +4227,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Ilosć porównań sortując tablicę o rozmiarze 1000</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$S$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>malejaco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$L$54:$L$58</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>sortLP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>sortPL</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sortLL</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>sortPP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>binsSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$S$54:$S$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>500229</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500229</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500229</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500499</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0907-4B60-A018-04888C4431B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$T$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>rosnaco</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$L$54:$L$58</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>sortLP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>sortPL</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sortLL</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>sortPP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>binsSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$T$54:$T$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1269</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0907-4B60-A018-04888C4431B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$U$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>losowo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$L$54:$L$58</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>sortLP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>sortPL</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sortLL</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>sortPP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>binsSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$U$54:$U$58</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>243427</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>243427</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>243427</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>243652</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>243652</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0907-4B60-A018-04888C4431B5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:overlap val="-40"/>
-        <c:axId val="925788511"/>
-        <c:axId val="925789471"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="925788511"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="925789471"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="925789471"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="550000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="925788511"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
               <a:t>Ilość przestawień</a:t>
             </a:r>
             <a:r>
@@ -5068,22 +4395,22 @@
             <c:numRef>
               <c:f>Sheet1!$U$32:$U$36</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>24908900</c:v>
+                  <c:v>24988600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24908900</c:v>
+                  <c:v>24988600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24908900</c:v>
+                  <c:v>24988600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24911500</c:v>
+                  <c:v>24991100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24911500</c:v>
+                  <c:v>24991100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5204,16 +4531,16 @@
             <c:numRef>
               <c:f>Sheet1!$S$32:$S$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50002425</c:v>
+                  <c:v>50002464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50002425</c:v>
+                  <c:v>50002464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50002425</c:v>
+                  <c:v>50002464</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>50004999</c:v>
@@ -5340,7 +4667,7 @@
             <c:numRef>
               <c:f>Sheet1!$T$32:$T$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>9999</c:v>
@@ -5352,10 +4679,10 @@
                   <c:v>9999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12573</c:v>
+                  <c:v>12534</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12573</c:v>
+                  <c:v>12534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5560,7 +4887,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -5747,7 +5074,7 @@
             <c:numRef>
               <c:f>Sheet1!$S$54:$S$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>500229</c:v>
@@ -5883,7 +5210,7 @@
             <c:numRef>
               <c:f>Sheet1!$T$54:$T$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>999</c:v>
@@ -6019,22 +5346,22 @@
             <c:numRef>
               <c:f>Sheet1!$U$54:$U$58</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>243427</c:v>
+                  <c:v>251374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>243427</c:v>
+                  <c:v>251374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243427</c:v>
+                  <c:v>251374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>243652</c:v>
+                  <c:v>251424</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>243652</c:v>
+                  <c:v>251424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6165,6 +5492,1392 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="925788511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Ilość porównań sortując</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> tablicę o rozmiarze 10 000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>malejaco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$32:$L$36</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sortLP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sortPL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sortLL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sortPP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>binsSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$32:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50002464</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50002464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113631</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEBC-4C31-99B8-F2221EAD22A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rosnaco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$32:$L$36</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sortLP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sortPL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sortLL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sortPP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>binsSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$32:$N$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50004999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50002464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123429</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CEBC-4C31-99B8-F2221EAD22A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>losowo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$32:$L$36</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sortLP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sortPL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sortLL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sortPP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>binsSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$32:$O$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24988600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24988600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25026400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25023900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CEBC-4C31-99B8-F2221EAD22A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="-50"/>
+        <c:axId val="1888930320"/>
+        <c:axId val="1798969584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1888930320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1798969584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1798969584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="55000000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888930320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Ilość porównań sortując tablicę o rozmiarze 1000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>malejaco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$54:$L$58</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sortLP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sortPL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sortLL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sortPP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>binsSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$54:$M$58</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B97-4A40-A85A-0ECEB334E70D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rosnaco</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$54:$L$58</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sortLP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sortPL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sortLL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sortPP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>binsSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$54:$N$58</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500451</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B97-4A40-A85A-0ECEB334E70D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>losowo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$54:$L$58</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>sortLP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>sortPL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sortLL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sortPP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>binsSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$54:$O$58</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>251374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>251374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>258071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250074</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B97-4A40-A85A-0ECEB334E70D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="-50"/>
+        <c:axId val="2123273408"/>
+        <c:axId val="2123273888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2123273408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123273888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2123273888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="550000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123273408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6564,6 +7277,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10626,20 +11379,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>597427</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>8416</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>721984</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>37724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>103554</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>94507</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>977</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123815</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10704,16 +11962,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>451936</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>169352</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104554</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>135734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>187476</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>55052</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>8182</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>21434</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10776,42 +12034,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>23531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>99731</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD6BBC8-41BB-F55E-1BF3-7E66B441B408}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>438979</xdr:colOff>
       <xdr:row>75</xdr:row>
@@ -10842,6 +12064,44 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>109258</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>445433</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>89087</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903158C2-9A7C-401B-B9A2-B19BFB6C1F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
@@ -10851,22 +12111,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>18532</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>67666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>64432</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>525815</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>143866</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903158C2-9A7C-401B-B9A2-B19BFB6C1F5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C1FCE73-F5F9-4C43-9326-7B180F092BF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10888,29 +12148,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>439615</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>165847</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>124051</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>176579</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C1FCE73-F5F9-4C43-9326-7B180F092BF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8A373B-0F35-F1F5-49A2-8FD8C8BFB136}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10919,6 +12177,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>49823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>424961</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>126023</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7653E20F-49D8-FFB8-B2BE-08478EB6E3DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11244,10 +12538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3F34BA-C36D-4B79-98C5-281747C0CFF9}">
-  <dimension ref="B1:U58"/>
+  <dimension ref="B1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J11" sqref="J1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11259,10 +12553,14 @@
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
@@ -11281,8 +12579,14 @@
       <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
         <v>10000</v>
       </c>
@@ -11301,8 +12605,18 @@
       <c r="H2" s="5">
         <v>37.636200000000002</v>
       </c>
+      <c r="J2" s="5">
+        <v>49.654400000000003</v>
+      </c>
+      <c r="K2" s="5">
+        <v>37.636200000000002</v>
+      </c>
+      <c r="L2" s="10">
+        <f t="shared" ref="L2:L10" si="0">100%-(K2/J2)</f>
+        <v>0.24203695946381387</v>
+      </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C3" s="5">
         <v>20000</v>
       </c>
@@ -11321,8 +12635,18 @@
       <c r="H3" s="5">
         <v>147.91399999999999</v>
       </c>
+      <c r="J3" s="5">
+        <v>194.077</v>
+      </c>
+      <c r="K3" s="5">
+        <v>147.91399999999999</v>
+      </c>
+      <c r="L3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.23785920021434792</v>
+      </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="5">
         <v>30000</v>
       </c>
@@ -11341,8 +12665,18 @@
       <c r="H4" s="5">
         <v>352.029</v>
       </c>
+      <c r="J4" s="5">
+        <v>429.91500000000002</v>
+      </c>
+      <c r="K4" s="5">
+        <v>352.029</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18116604445064732</v>
+      </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" s="5">
         <v>40000</v>
       </c>
@@ -11361,8 +12695,18 @@
       <c r="H5" s="5">
         <v>626.76700000000005</v>
       </c>
+      <c r="J5" s="5">
+        <v>755.69799999999998</v>
+      </c>
+      <c r="K5" s="5">
+        <v>626.76700000000005</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.17061180524495223</v>
+      </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>50000</v>
       </c>
@@ -11381,8 +12725,18 @@
       <c r="H6" s="5">
         <v>974.99300000000005</v>
       </c>
+      <c r="J6" s="5">
+        <v>1222.78</v>
+      </c>
+      <c r="K6" s="5">
+        <v>974.99300000000005</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.20264233958684308</v>
+      </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>60000</v>
       </c>
@@ -11401,8 +12755,18 @@
       <c r="H7" s="5">
         <v>1292.43</v>
       </c>
+      <c r="J7" s="5">
+        <v>1705.88</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1292.43</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.24236757567941469</v>
+      </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>70000</v>
       </c>
@@ -11421,8 +12785,18 @@
       <c r="H8" s="5">
         <v>1790.98</v>
       </c>
+      <c r="J8" s="5">
+        <v>2315.42</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1790.98</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22649886413696008</v>
+      </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <v>80000</v>
       </c>
@@ -11441,8 +12815,18 @@
       <c r="H9" s="5">
         <v>2410</v>
       </c>
+      <c r="J9" s="5">
+        <v>3105.6</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2410</v>
+      </c>
+      <c r="L9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.22398248325605352</v>
+      </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" s="5">
         <v>90000</v>
       </c>
@@ -11461,8 +12845,18 @@
       <c r="H10" s="5">
         <v>3261.01</v>
       </c>
+      <c r="J10" s="5">
+        <v>3769.92</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3261.01</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.13499225447754859</v>
+      </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" s="5">
         <v>100000</v>
       </c>
@@ -11480,6 +12874,22 @@
       </c>
       <c r="H11" s="5">
         <v>4064.9</v>
+      </c>
+      <c r="J11" s="5">
+        <v>4651.7299999999996</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4064.9</v>
+      </c>
+      <c r="L11" s="10">
+        <f>100%-(K11/J11)</f>
+        <v>0.12615306563364592</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="10">
+        <f>AVERAGE(L2:L11)</f>
+        <v>0.19883105921442273</v>
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.25">
@@ -11742,78 +13152,78 @@
       <c r="L32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="8">
+        <v>50002464</v>
+      </c>
+      <c r="N32" s="8">
         <v>9999</v>
       </c>
-      <c r="N32" s="5">
-        <v>9999</v>
-      </c>
-      <c r="O32" s="7">
-        <v>9999</v>
+      <c r="O32" s="8">
+        <v>24988600</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S32" s="5">
-        <v>50002425</v>
-      </c>
-      <c r="T32" s="5">
+      <c r="S32" s="8">
+        <v>50002464</v>
+      </c>
+      <c r="T32" s="8">
         <v>9999</v>
       </c>
-      <c r="U32" s="7">
-        <v>24908900</v>
+      <c r="U32" s="8">
+        <v>24988600</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="8">
+        <v>50002464</v>
+      </c>
+      <c r="N33" s="8">
         <v>9999</v>
       </c>
-      <c r="N33" s="5">
-        <v>9999</v>
-      </c>
-      <c r="O33" s="7">
-        <v>9999</v>
+      <c r="O33" s="8">
+        <v>24988600</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="S33" s="5">
-        <v>50002425</v>
-      </c>
-      <c r="T33" s="5">
+      <c r="S33" s="8">
+        <v>50002464</v>
+      </c>
+      <c r="T33" s="8">
         <v>9999</v>
       </c>
-      <c r="U33" s="7">
-        <v>24908900</v>
+      <c r="U33" s="8">
+        <v>24988600</v>
       </c>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="L34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M34" s="5">
-        <v>12573</v>
-      </c>
-      <c r="N34" s="5">
+      <c r="M34" s="8">
+        <v>12534</v>
+      </c>
+      <c r="N34" s="8">
         <v>50004999</v>
       </c>
-      <c r="O34" s="7">
-        <v>25106100</v>
+      <c r="O34" s="8">
+        <v>25026400</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S34" s="5">
-        <v>50002425</v>
-      </c>
-      <c r="T34" s="5">
+      <c r="S34" s="8">
+        <v>50002464</v>
+      </c>
+      <c r="T34" s="8">
         <v>9999</v>
       </c>
-      <c r="U34" s="7">
-        <v>24908900</v>
+      <c r="U34" s="8">
+        <v>24988600</v>
       </c>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
@@ -11838,26 +13248,26 @@
       <c r="L35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="8">
         <v>9999</v>
       </c>
-      <c r="N35" s="5">
-        <v>50002425</v>
-      </c>
-      <c r="O35" s="7">
-        <v>25103500</v>
+      <c r="N35" s="8">
+        <v>50002464</v>
+      </c>
+      <c r="O35" s="8">
+        <v>25023900</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="8">
         <v>50004999</v>
       </c>
-      <c r="T35" s="5">
-        <v>12573</v>
-      </c>
-      <c r="U35" s="7">
-        <v>24911500</v>
+      <c r="T35" s="8">
+        <v>12534</v>
+      </c>
+      <c r="U35" s="8">
+        <v>24991100</v>
       </c>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
@@ -11882,26 +13292,26 @@
       <c r="L36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="8">
         <v>113631</v>
       </c>
-      <c r="N36" s="5">
-        <v>123409</v>
-      </c>
-      <c r="O36" s="5">
-        <v>118984</v>
+      <c r="N36" s="8">
+        <v>123429</v>
+      </c>
+      <c r="O36" s="8">
+        <v>118997</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="8">
         <v>50004999</v>
       </c>
-      <c r="T36" s="5">
-        <v>12573</v>
-      </c>
-      <c r="U36" s="7">
-        <v>24911500</v>
+      <c r="T36" s="8">
+        <v>12534</v>
+      </c>
+      <c r="U36" s="8">
+        <v>24991100</v>
       </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
@@ -12089,12 +13499,12 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
-      <c r="R52" s="6" t="s">
+      <c r="R52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
     </row>
     <row r="53" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L53" s="5"/>
@@ -12107,14 +13517,14 @@
       <c r="O53" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5" t="s">
+      <c r="R53" s="8"/>
+      <c r="S53" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="T53" s="5" t="s">
+      <c r="T53" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="U53" s="5" t="s">
+      <c r="U53" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12122,131 +13532,136 @@
       <c r="L54" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="8">
+        <v>500451</v>
+      </c>
+      <c r="N54" s="8">
         <v>999</v>
       </c>
-      <c r="N54" s="5">
+      <c r="O54" s="8">
+        <v>251374</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S54" s="8">
+        <v>500229</v>
+      </c>
+      <c r="T54" s="8">
         <v>999</v>
       </c>
-      <c r="O54" s="7">
-        <v>999</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S54" s="5">
-        <v>500229</v>
-      </c>
-      <c r="T54" s="5">
-        <v>999</v>
-      </c>
-      <c r="U54" s="7">
-        <v>243427</v>
+      <c r="U54" s="8">
+        <v>251374</v>
       </c>
     </row>
     <row r="55" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L55" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="8">
+        <v>500451</v>
+      </c>
+      <c r="N55" s="8">
         <v>999</v>
       </c>
-      <c r="N55" s="5">
+      <c r="O55" s="8">
+        <v>251374</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S55" s="8">
+        <v>500229</v>
+      </c>
+      <c r="T55" s="8">
         <v>999</v>
       </c>
-      <c r="O55" s="7">
-        <v>999</v>
-      </c>
-      <c r="R55" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S55" s="5">
-        <v>500229</v>
-      </c>
-      <c r="T55" s="5">
-        <v>999</v>
-      </c>
-      <c r="U55" s="7">
-        <v>243427</v>
+      <c r="U55" s="8">
+        <v>251374</v>
       </c>
     </row>
     <row r="56" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L56" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M56" s="5">
-        <v>1269</v>
-      </c>
-      <c r="N56" s="5">
+      <c r="M56" s="8">
+        <v>1047</v>
+      </c>
+      <c r="N56" s="8">
         <v>500499</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O56" s="8">
         <v>258071</v>
       </c>
-      <c r="R56" s="5" t="s">
+      <c r="R56" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S56" s="5">
+      <c r="S56" s="8">
         <v>500229</v>
       </c>
-      <c r="T56" s="5">
+      <c r="T56" s="8">
         <v>999</v>
       </c>
-      <c r="U56" s="7">
-        <v>243427</v>
+      <c r="U56" s="8">
+        <v>251374</v>
       </c>
     </row>
     <row r="57" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L57" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="5">
+      <c r="M57" s="8">
         <v>999</v>
       </c>
-      <c r="N57" s="5">
-        <v>500229</v>
-      </c>
-      <c r="O57" s="7">
-        <v>257846</v>
-      </c>
-      <c r="R57" s="5" t="s">
+      <c r="N57" s="8">
+        <v>500451</v>
+      </c>
+      <c r="O57" s="8">
+        <v>250074</v>
+      </c>
+      <c r="R57" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="5">
+      <c r="S57" s="8">
         <v>500499</v>
       </c>
-      <c r="T57" s="5">
+      <c r="T57" s="8">
         <v>1269</v>
       </c>
-      <c r="U57" s="7">
-        <v>243652</v>
+      <c r="U57" s="8">
+        <v>251424</v>
       </c>
     </row>
     <row r="58" spans="12:21" x14ac:dyDescent="0.25">
       <c r="L58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="8">
         <v>7987</v>
       </c>
-      <c r="N58" s="5">
-        <v>8960</v>
-      </c>
-      <c r="O58" s="5">
-        <v>8603</v>
-      </c>
-      <c r="R58" s="5" t="s">
+      <c r="N58" s="8">
+        <v>8976</v>
+      </c>
+      <c r="O58" s="8">
+        <v>8587</v>
+      </c>
+      <c r="R58" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S58" s="5">
+      <c r="S58" s="8">
         <v>500499</v>
       </c>
-      <c r="T58" s="5">
+      <c r="T58" s="8">
         <v>1269</v>
       </c>
-      <c r="U58" s="7">
-        <v>243652</v>
-      </c>
+      <c r="U58" s="8">
+        <v>251424</v>
+      </c>
+    </row>
+    <row r="59" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
